--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/15/seed1/result_data_RandomForest.xlsx
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.5094</v>
+        <v>-12.1324</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -536,7 +536,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.6157</v>
+        <v>-12.94139999999999</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -553,10 +553,10 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.1754</v>
+        <v>-12.2167</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.288200000000002</v>
+        <v>-7.307799999999998</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.150700000000003</v>
+        <v>-7.218599999999999</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.64720000000001</v>
+        <v>16.5914</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.10110000000001</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="15">
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.637799999999997</v>
+        <v>-8.534299999999995</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -706,13 +706,13 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-14.00109999999999</v>
+        <v>-14.0341</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.251</v>
+        <v>16.2227</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.63680000000001</v>
+        <v>16.68710000000001</v>
       </c>
     </row>
     <row r="20">
@@ -774,10 +774,10 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.64160000000001</v>
+        <v>-12.3672</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.084299999999995</v>
+        <v>-8.178099999999993</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.076699999999995</v>
+        <v>-8.177599999999995</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -811,10 +811,10 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.270300000000002</v>
+        <v>-8.080800000000002</v>
       </c>
       <c r="E22" t="n">
-        <v>16.55570000000001</v>
+        <v>16.4224</v>
       </c>
     </row>
     <row r="23">
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.268099999999999</v>
+        <v>-7.247599999999998</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.5246</v>
+        <v>-12.7369</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -927,10 +927,10 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.93760000000001</v>
+        <v>-11.41050000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.1871</v>
+        <v>-7.3283</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.04550000000001</v>
+        <v>-12.5719</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1015,7 +1015,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.915599999999997</v>
+        <v>-7.953300000000001</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>15.8469</v>
+        <v>15.63670000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-11.74140000000001</v>
+        <v>-11.867</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.5601</v>
+        <v>-8.652000000000001</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.253699999999998</v>
+        <v>-8.456999999999999</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.052399999999995</v>
+        <v>-7.357999999999993</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.565599999999998</v>
+        <v>-7.693199999999998</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1216,13 +1216,13 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.66219999999999</v>
+        <v>-14.41229999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>-7.939399999999996</v>
+        <v>-7.948899999999997</v>
       </c>
       <c r="E46" t="n">
-        <v>16.77710000000001</v>
+        <v>16.71390000000001</v>
       </c>
     </row>
     <row r="47">
@@ -1287,10 +1287,10 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.320599999999997</v>
+        <v>-7.932499999999997</v>
       </c>
       <c r="E50" t="n">
-        <v>16.668</v>
+        <v>16.7499</v>
       </c>
     </row>
     <row r="51">
@@ -1301,10 +1301,10 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.5675</v>
+        <v>-11.8735</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.425100000000003</v>
+        <v>-7.3399</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.0361</v>
+        <v>-11.21220000000001</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.1456</v>
+        <v>-14.21859999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.6283</v>
+        <v>-12.8227</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1488,7 +1488,7 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-14.25219999999998</v>
+        <v>-13.92749999999999</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1556,10 +1556,10 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.05070000000001</v>
+        <v>-11.8068</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.476299999999998</v>
+        <v>-7.663000000000002</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.5223</v>
+        <v>-6.500100000000003</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.24070000000001</v>
+        <v>-11.34720000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,7 +1692,7 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.1379</v>
+        <v>-12.0628</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.299400000000004</v>
+        <v>-6.352200000000006</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.895300000000004</v>
+        <v>-8.851600000000008</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1998,10 +1998,10 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.28140000000001</v>
+        <v>-11.53130000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.560500000000002</v>
+        <v>-6.679900000000003</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>18.51560000000002</v>
+        <v>18.45420000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2086,10 +2086,10 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.424400000000002</v>
+        <v>-8.458899999999998</v>
       </c>
       <c r="E97" t="n">
-        <v>16.28319999999999</v>
+        <v>16.46519999999999</v>
       </c>
     </row>
     <row r="98">
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.5285</v>
+        <v>-12.5168</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
